--- a/src/test/resources/test8.xlsx
+++ b/src/test/resources/test8.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17625" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11055" windowHeight="5865"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,48 +26,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Nombre</t>
   </si>
   <si>
-    <t>90500084Y</t>
-  </si>
-  <si>
-    <t>Apellidos</t>
-  </si>
-  <si>
-    <t>Juan</t>
-  </si>
-  <si>
-    <t>Torres Pardo</t>
-  </si>
-  <si>
-    <t>DNI</t>
-  </si>
-  <si>
-    <t>Fecha nacimiento</t>
-  </si>
-  <si>
-    <t>Nacionalidad</t>
-  </si>
-  <si>
-    <t>Español</t>
-  </si>
-  <si>
     <t>Correo electrónico</t>
   </si>
   <si>
     <t>juan@example.com</t>
   </si>
   <si>
-    <t>Dirección postal</t>
-  </si>
-  <si>
-    <t>NIF</t>
-  </si>
-  <si>
-    <t>pollingStation</t>
+    <t>Localización</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Juan Torres Pardo</t>
+  </si>
+  <si>
+    <t>40.5N30.99W</t>
+  </si>
+  <si>
+    <t>58758L</t>
   </si>
 </sst>
 </file>
@@ -112,9 +97,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -397,17 +381,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="23.42578125" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -415,61 +399,58 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1">
-        <v>31330</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
+      <c r="E3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId3"/>
 </worksheet>
 </file>
--- a/src/test/resources/test8.xlsx
+++ b/src/test/resources/test8.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11055" windowHeight="5865"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="2640"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -97,9 +97,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -384,7 +385,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,7 +425,7 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>1</v>
       </c>
     </row>
@@ -441,7 +442,7 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>1</v>
       </c>
     </row>
